--- a/tabellen/versie-5.0-LinkedData/objectentabellen-verkort/5.01-Objectentabel-WH-Waterhuishouding.xlsx
+++ b/tabellen/versie-5.0-LinkedData/objectentabellen-verkort/5.01-Objectentabel-WH-Waterhuishouding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\versie-5.0-LinkedData\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB2627C-B91A-4921-939B-E39816E5CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{521164C3-8976-4239-AEDC-FA9BD343E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="5.01-Objectentabel-WH-Waterhuis" sheetId="1" r:id="rId1"/>
@@ -20,153 +20,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>hoofdgroep,"id_nummer","omschrijving","kind_van","status","discipline","lw_b","kl_b","kl_b_a","kl_b_gd","kl_b_gn","kl_b_v","lt_b","lw_n","kl_n","kl_n_a","kl_n_gd","kl_n_gn","kl_n_v","lt_n","lw_t","kl_t","kl_t_a","kl_t_gd","kl_t_gn","kl_t_v","lt_t","lw_v","kl_v","kl_v_a","kl_v_gd","kl_v_gn","kl_v_v","lt_v","element","vrkl_kort"</t>
-  </si>
-  <si>
-    <t>WH,"2686","WVP_2e","2684","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2687","WVP_3e","2684","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2685","WVP_1e","2684","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3036","DUIKER_BETON","3035","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3038","DUIKER_PVC","3035","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3039","DUIKER_STAAL","3035","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3037","DUIKER_PE","3035","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3025","WATERPEIL_STUWPEIL","2681","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3027","WATERPEIL_WINTERPEIL","2681","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3033","WATERPEIL_KNOOPPUNT","2681","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3026","WATERPEIL_ZOMERPEIL","2681","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3030","KUNSTWERK_BRUG","3029","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3032","KUNSTWERK_STUW","3029","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2684","WVP","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2670","INFO","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2661","EB","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3028","WATERLOOP","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2679","WATERLIJN","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2678","WATERBODEM","","*","**","0.18","90","92","90","90","253","AL-MAAIVELD-SO","0.35","90","92","90","90","253","AL-MAAIVELD-SO","0.35","90","92","90","90","253","AL-MAAIVELD-SO","0.35","90","92","90","90","253","V-AL-MAAIVELD-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2690","NORMAALLIJN","","*","**","0.18","170","172","170","170","253","CONTINUOUS","0.35","170","172","170","170","253","CONTINUOUS","0.35","170","172","170","170","253","CONTINUOUS","0.35","170","172","170","170","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2691","DEBIETLIJN","","*","**","0.18","140","142","140","140","253","CONTINUOUS","0.35","140","142","140","140","253","CONTINUOUS","0.35","140","142","140","140","253","CONTINUOUS","0.35","140","142","140","140","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2672","NATTE OMTREK","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2682","WINTERBED","","*","**","0.18","150","152","150","150","253","WH-WINTERBED-SO","0.35","150","152","150","150","253","WH-WINTERBED-SO","0.35","150","152","150","150","253","WH-WINTERBED-SO","0.35","150","152","150","150","253","V-WH-WINTERBED-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3034","PEILVAK","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2668","GRONDWATERLIJN","","*","**","0.18","150","152","150","150","253","AL-GRONDWATERLIJN-SO","0.35","150","152","150","150","253","AL-GRONDWATERLIJN-SO","0.35","150","152","150","150","253","AL-GRONDWATERLIJN-SO","0.35","150","152","150","150","253","V-AL-GRONDWATERLIJN-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2669","HYDRAULISCH OPPERVLAK","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3035","DUIKER","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2677","VLOEDLIJN","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2680","WATEROVERSPANNING","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3356","OVERSTORT","","*","**","0.18","7","7","7","7","253","WH-OVERSTORT-SO","0.35","7","7","7","7","253","WH-OVERSTORT-SO","0.35","7","7","7","7","253","WH-OVERSTORT-SO","0.35","7","7","7","7","253","V-WH-OVERSTORT-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2674","RAAI","","*","**","0.18","10","12","10","10","253","GW-RAAI-SO","0.25","10","12","10","10","253","GW-RAAI-SO","0.25","10","12","10","10","253","GW-RAAI-SO","0.25","10","12","10","10","253","V-GW-RAAI-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2662","FREATISCH OPPERVLAK","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2692","STROOMRICHTING","","*","**","0.18","7","252","7","7","253","CONTINUOUS","0.35","7","252","7","7","253","CONTINUOUS","0.35","7","252","7","7","253","CONTINUOUS","0.35","7","252","7","7","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2681","WATERPEIL","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2676","VLOED","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2675","STIJGHOOGTE","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"3029","KUNSTWERK","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","CONTINUOUS","0.25","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2660","DIEPTELIJN","","*","**","0.18","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","CONTINUOUS","0.35","150","152","150","150","253","V-CONTINUOUS-SO","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2671","NAP","","*","**","","","","","","","","0.35","10","12","10","10","253","AL-NAP_LIJN-SO","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2667","GEUL_VAARGEUL","2663","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2666","GEUL_STROOMGEUL","2663","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2664","GEUL_HOOGWATERGEUL","2663","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2665","GEUL_NEVENGEUL","2663","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2683","WINTERBERGING","","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2689","GROENE RIVIER","","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2663","GEUL","","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2673","OVERLOOPGEBIED","","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
-  </si>
-  <si>
-    <t>WH,"2688","ZOMERBED","","*","**","","","","","","","","","","","","","","","","","","","","","","","","","","","","","G",""</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="119">
+  <si>
+    <t>hoofdgroep</t>
+  </si>
+  <si>
+    <t>id_nummer</t>
+  </si>
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>kind_van</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>lw_b</t>
+  </si>
+  <si>
+    <t>kl_b</t>
+  </si>
+  <si>
+    <t>kl_b_a</t>
+  </si>
+  <si>
+    <t>kl_b_gd</t>
+  </si>
+  <si>
+    <t>kl_b_gn</t>
+  </si>
+  <si>
+    <t>kl_b_v</t>
+  </si>
+  <si>
+    <t>lt_b</t>
+  </si>
+  <si>
+    <t>lw_n</t>
+  </si>
+  <si>
+    <t>kl_n</t>
+  </si>
+  <si>
+    <t>kl_n_a</t>
+  </si>
+  <si>
+    <t>kl_n_gd</t>
+  </si>
+  <si>
+    <t>kl_n_gn</t>
+  </si>
+  <si>
+    <t>kl_n_v</t>
+  </si>
+  <si>
+    <t>lt_n</t>
+  </si>
+  <si>
+    <t>lw_t</t>
+  </si>
+  <si>
+    <t>kl_t</t>
+  </si>
+  <si>
+    <t>kl_t_a</t>
+  </si>
+  <si>
+    <t>kl_t_gd</t>
+  </si>
+  <si>
+    <t>kl_t_gn</t>
+  </si>
+  <si>
+    <t>kl_t_v</t>
+  </si>
+  <si>
+    <t>lt_t</t>
+  </si>
+  <si>
+    <t>lw_v</t>
+  </si>
+  <si>
+    <t>kl_v</t>
+  </si>
+  <si>
+    <t>kl_v_a</t>
+  </si>
+  <si>
+    <t>kl_v_gd</t>
+  </si>
+  <si>
+    <t>kl_v_gn</t>
+  </si>
+  <si>
+    <t>kl_v_v</t>
+  </si>
+  <si>
+    <t>lt_v</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>vrkl_kort</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>WVP_2e</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>V-CONTINUOUS-SO</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>WVP_3e</t>
+  </si>
+  <si>
+    <t>WVP_1e</t>
+  </si>
+  <si>
+    <t>DUIKER_BETON</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>DUIKER_PVC</t>
+  </si>
+  <si>
+    <t>DUIKER_STAAL</t>
+  </si>
+  <si>
+    <t>DUIKER_PE</t>
+  </si>
+  <si>
+    <t>WATERPEIL_STUWPEIL</t>
+  </si>
+  <si>
+    <t>WATERPEIL_WINTERPEIL</t>
+  </si>
+  <si>
+    <t>WATERPEIL_KNOOPPUNT</t>
+  </si>
+  <si>
+    <t>WATERPEIL_ZOMERPEIL</t>
+  </si>
+  <si>
+    <t>KUNSTWERK_BRUG</t>
+  </si>
+  <si>
+    <t>KUNSTWERK_STUW</t>
+  </si>
+  <si>
+    <t>WVP</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>WATERLOOP</t>
+  </si>
+  <si>
+    <t>WATERLIJN</t>
+  </si>
+  <si>
+    <t>WATERBODEM</t>
+  </si>
+  <si>
+    <t>AL-MAAIVELD-SO</t>
+  </si>
+  <si>
+    <t>V-AL-MAAIVELD-SO</t>
+  </si>
+  <si>
+    <t>NORMAALLIJN</t>
+  </si>
+  <si>
+    <t>DEBIETLIJN</t>
+  </si>
+  <si>
+    <t>NATTE OMTREK</t>
+  </si>
+  <si>
+    <t>WINTERBED</t>
+  </si>
+  <si>
+    <t>WH-WINTERBED-SO</t>
+  </si>
+  <si>
+    <t>V-WH-WINTERBED-SO</t>
+  </si>
+  <si>
+    <t>PEILVAK</t>
+  </si>
+  <si>
+    <t>GRONDWATERLIJN</t>
+  </si>
+  <si>
+    <t>AL-GRONDWATERLIJN-SO</t>
+  </si>
+  <si>
+    <t>V-AL-GRONDWATERLIJN-SO</t>
+  </si>
+  <si>
+    <t>HYDRAULISCH OPPERVLAK</t>
+  </si>
+  <si>
+    <t>DUIKER</t>
+  </si>
+  <si>
+    <t>VLOEDLIJN</t>
+  </si>
+  <si>
+    <t>WATEROVERSPANNING</t>
+  </si>
+  <si>
+    <t>OVERSTORT</t>
+  </si>
+  <si>
+    <t>WH-OVERSTORT-SO</t>
+  </si>
+  <si>
+    <t>V-WH-OVERSTORT-SO</t>
+  </si>
+  <si>
+    <t>RAAI</t>
+  </si>
+  <si>
+    <t>GW-RAAI-SO</t>
+  </si>
+  <si>
+    <t>V-GW-RAAI-SO</t>
+  </si>
+  <si>
+    <t>FREATISCH OPPERVLAK</t>
+  </si>
+  <si>
+    <t>STROOMRICHTING</t>
+  </si>
+  <si>
+    <t>WATERPEIL</t>
+  </si>
+  <si>
+    <t>VLOED</t>
+  </si>
+  <si>
+    <t>STIJGHOOGTE</t>
+  </si>
+  <si>
+    <t>KUNSTWERK</t>
+  </si>
+  <si>
+    <t>DIEPTELIJN</t>
+  </si>
+  <si>
+    <t>GEUL_VAARGEUL</t>
+  </si>
+  <si>
+    <t>255,127,0</t>
+  </si>
+  <si>
+    <t>GEUL_STROOMGEUL</t>
+  </si>
+  <si>
+    <t>255,191,0</t>
+  </si>
+  <si>
+    <t>GEUL_HOOGWATERGEUL</t>
+  </si>
+  <si>
+    <t>0,127,255</t>
+  </si>
+  <si>
+    <t>GEUL_NEVENGEUL</t>
+  </si>
+  <si>
+    <t>0,255,255</t>
+  </si>
+  <si>
+    <t>WINTERBERGING</t>
+  </si>
+  <si>
+    <t>0,153,0</t>
+  </si>
+  <si>
+    <t>WH-WINTERBERGING-SO</t>
+  </si>
+  <si>
+    <t>V-WH-WINTERBERGING-SO</t>
+  </si>
+  <si>
+    <t>GROENE RIVIER</t>
+  </si>
+  <si>
+    <t>0,255,191</t>
+  </si>
+  <si>
+    <t>GEUL</t>
+  </si>
+  <si>
+    <t>0,0,255</t>
+  </si>
+  <si>
+    <t>OVERLOOPGEBIED</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>WH-OVERLOOPGEBIED-SO</t>
+  </si>
+  <si>
+    <t>V-WH-OVERLOOPGEBIED-SO</t>
+  </si>
+  <si>
+    <t>ZOMERBED</t>
+  </si>
+  <si>
+    <t>0,255,0</t>
+  </si>
+  <si>
+    <t>WH-ZOMERBED-SO</t>
+  </si>
+  <si>
+    <t>V-WH-ZOMERBED-SO</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>AL-NAP_LIJN-SO</t>
   </si>
 </sst>
 </file>
@@ -1007,255 +1217,5100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>2686</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>2684</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>152</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>253</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2">
+        <v>150</v>
+      </c>
+      <c r="P2">
+        <v>152</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>150</v>
+      </c>
+      <c r="S2">
+        <v>253</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2">
+        <v>150</v>
+      </c>
+      <c r="W2">
+        <v>152</v>
+      </c>
+      <c r="X2">
+        <v>150</v>
+      </c>
+      <c r="Y2">
+        <v>150</v>
+      </c>
+      <c r="Z2">
+        <v>253</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2">
+        <v>150</v>
+      </c>
+      <c r="AD2">
+        <v>152</v>
+      </c>
+      <c r="AE2">
+        <v>150</v>
+      </c>
+      <c r="AF2">
+        <v>150</v>
+      </c>
+      <c r="AG2">
+        <v>253</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2687</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>2684</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>152</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3">
+        <v>253</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>150</v>
+      </c>
+      <c r="P3">
+        <v>152</v>
+      </c>
+      <c r="Q3">
+        <v>150</v>
+      </c>
+      <c r="R3">
+        <v>150</v>
+      </c>
+      <c r="S3">
+        <v>253</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3">
+        <v>150</v>
+      </c>
+      <c r="W3">
+        <v>152</v>
+      </c>
+      <c r="X3">
+        <v>150</v>
+      </c>
+      <c r="Y3">
+        <v>150</v>
+      </c>
+      <c r="Z3">
+        <v>253</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3">
+        <v>150</v>
+      </c>
+      <c r="AD3">
+        <v>152</v>
+      </c>
+      <c r="AE3">
+        <v>150</v>
+      </c>
+      <c r="AF3">
+        <v>150</v>
+      </c>
+      <c r="AG3">
+        <v>253</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>2685</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>2684</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>152</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+      <c r="L4">
+        <v>253</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>150</v>
+      </c>
+      <c r="P4">
+        <v>152</v>
+      </c>
+      <c r="Q4">
+        <v>150</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="S4">
+        <v>253</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4">
+        <v>150</v>
+      </c>
+      <c r="W4">
+        <v>152</v>
+      </c>
+      <c r="X4">
+        <v>150</v>
+      </c>
+      <c r="Y4">
+        <v>150</v>
+      </c>
+      <c r="Z4">
+        <v>253</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4">
+        <v>150</v>
+      </c>
+      <c r="AD4">
+        <v>152</v>
+      </c>
+      <c r="AE4">
+        <v>150</v>
+      </c>
+      <c r="AF4">
+        <v>150</v>
+      </c>
+      <c r="AG4">
+        <v>253</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>3036</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>3035</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>152</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>253</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>150</v>
+      </c>
+      <c r="P5">
+        <v>152</v>
+      </c>
+      <c r="Q5">
+        <v>150</v>
+      </c>
+      <c r="R5">
+        <v>150</v>
+      </c>
+      <c r="S5">
+        <v>253</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5">
+        <v>150</v>
+      </c>
+      <c r="W5">
+        <v>152</v>
+      </c>
+      <c r="X5">
+        <v>150</v>
+      </c>
+      <c r="Y5">
+        <v>150</v>
+      </c>
+      <c r="Z5">
+        <v>253</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5">
+        <v>150</v>
+      </c>
+      <c r="AD5">
+        <v>152</v>
+      </c>
+      <c r="AE5">
+        <v>150</v>
+      </c>
+      <c r="AF5">
+        <v>150</v>
+      </c>
+      <c r="AG5">
+        <v>253</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>3038</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>3035</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>152</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
+      </c>
+      <c r="L6">
+        <v>253</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>150</v>
+      </c>
+      <c r="P6">
+        <v>152</v>
+      </c>
+      <c r="Q6">
+        <v>150</v>
+      </c>
+      <c r="R6">
+        <v>150</v>
+      </c>
+      <c r="S6">
+        <v>253</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6">
+        <v>150</v>
+      </c>
+      <c r="W6">
+        <v>152</v>
+      </c>
+      <c r="X6">
+        <v>150</v>
+      </c>
+      <c r="Y6">
+        <v>150</v>
+      </c>
+      <c r="Z6">
+        <v>253</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>150</v>
+      </c>
+      <c r="AD6">
+        <v>152</v>
+      </c>
+      <c r="AE6">
+        <v>150</v>
+      </c>
+      <c r="AF6">
+        <v>150</v>
+      </c>
+      <c r="AG6">
+        <v>253</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>3039</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>3035</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>152</v>
+      </c>
+      <c r="J7">
+        <v>150</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>253</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>150</v>
+      </c>
+      <c r="P7">
+        <v>152</v>
+      </c>
+      <c r="Q7">
+        <v>150</v>
+      </c>
+      <c r="R7">
+        <v>150</v>
+      </c>
+      <c r="S7">
+        <v>253</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7">
+        <v>150</v>
+      </c>
+      <c r="W7">
+        <v>152</v>
+      </c>
+      <c r="X7">
+        <v>150</v>
+      </c>
+      <c r="Y7">
+        <v>150</v>
+      </c>
+      <c r="Z7">
+        <v>253</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7">
+        <v>150</v>
+      </c>
+      <c r="AD7">
+        <v>152</v>
+      </c>
+      <c r="AE7">
+        <v>150</v>
+      </c>
+      <c r="AF7">
+        <v>150</v>
+      </c>
+      <c r="AG7">
+        <v>253</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3037</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>3035</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>152</v>
+      </c>
+      <c r="J8">
+        <v>150</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>253</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>152</v>
+      </c>
+      <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>150</v>
+      </c>
+      <c r="S8">
+        <v>253</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8">
+        <v>150</v>
+      </c>
+      <c r="W8">
+        <v>152</v>
+      </c>
+      <c r="X8">
+        <v>150</v>
+      </c>
+      <c r="Y8">
+        <v>150</v>
+      </c>
+      <c r="Z8">
+        <v>253</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8">
+        <v>150</v>
+      </c>
+      <c r="AD8">
+        <v>152</v>
+      </c>
+      <c r="AE8">
+        <v>150</v>
+      </c>
+      <c r="AF8">
+        <v>150</v>
+      </c>
+      <c r="AG8">
+        <v>253</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>3025</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>2681</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <v>152</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>253</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>150</v>
+      </c>
+      <c r="P9">
+        <v>152</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>150</v>
+      </c>
+      <c r="S9">
+        <v>253</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9">
+        <v>150</v>
+      </c>
+      <c r="W9">
+        <v>152</v>
+      </c>
+      <c r="X9">
+        <v>150</v>
+      </c>
+      <c r="Y9">
+        <v>150</v>
+      </c>
+      <c r="Z9">
+        <v>253</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9">
+        <v>150</v>
+      </c>
+      <c r="AD9">
+        <v>152</v>
+      </c>
+      <c r="AE9">
+        <v>150</v>
+      </c>
+      <c r="AF9">
+        <v>150</v>
+      </c>
+      <c r="AG9">
+        <v>253</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3027</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>2681</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>152</v>
+      </c>
+      <c r="J10">
+        <v>150</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>253</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10">
+        <v>150</v>
+      </c>
+      <c r="P10">
+        <v>152</v>
+      </c>
+      <c r="Q10">
+        <v>150</v>
+      </c>
+      <c r="R10">
+        <v>150</v>
+      </c>
+      <c r="S10">
+        <v>253</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10">
+        <v>150</v>
+      </c>
+      <c r="W10">
+        <v>152</v>
+      </c>
+      <c r="X10">
+        <v>150</v>
+      </c>
+      <c r="Y10">
+        <v>150</v>
+      </c>
+      <c r="Z10">
+        <v>253</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10">
+        <v>150</v>
+      </c>
+      <c r="AD10">
+        <v>152</v>
+      </c>
+      <c r="AE10">
+        <v>150</v>
+      </c>
+      <c r="AF10">
+        <v>150</v>
+      </c>
+      <c r="AG10">
+        <v>253</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>3033</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>2681</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
+      </c>
+      <c r="I11">
+        <v>152</v>
+      </c>
+      <c r="J11">
+        <v>150</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>253</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11">
+        <v>150</v>
+      </c>
+      <c r="P11">
+        <v>152</v>
+      </c>
+      <c r="Q11">
+        <v>150</v>
+      </c>
+      <c r="R11">
+        <v>150</v>
+      </c>
+      <c r="S11">
+        <v>253</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11">
+        <v>150</v>
+      </c>
+      <c r="W11">
+        <v>152</v>
+      </c>
+      <c r="X11">
+        <v>150</v>
+      </c>
+      <c r="Y11">
+        <v>150</v>
+      </c>
+      <c r="Z11">
+        <v>253</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11">
+        <v>150</v>
+      </c>
+      <c r="AD11">
+        <v>152</v>
+      </c>
+      <c r="AE11">
+        <v>150</v>
+      </c>
+      <c r="AF11">
+        <v>150</v>
+      </c>
+      <c r="AG11">
+        <v>253</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>3026</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2681</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>152</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12">
+        <v>253</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12">
+        <v>150</v>
+      </c>
+      <c r="P12">
+        <v>152</v>
+      </c>
+      <c r="Q12">
+        <v>150</v>
+      </c>
+      <c r="R12">
+        <v>150</v>
+      </c>
+      <c r="S12">
+        <v>253</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12">
+        <v>150</v>
+      </c>
+      <c r="W12">
+        <v>152</v>
+      </c>
+      <c r="X12">
+        <v>150</v>
+      </c>
+      <c r="Y12">
+        <v>150</v>
+      </c>
+      <c r="Z12">
+        <v>253</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12">
+        <v>150</v>
+      </c>
+      <c r="AD12">
+        <v>152</v>
+      </c>
+      <c r="AE12">
+        <v>150</v>
+      </c>
+      <c r="AF12">
+        <v>150</v>
+      </c>
+      <c r="AG12">
+        <v>253</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>3030</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>3029</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>152</v>
+      </c>
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <v>253</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>150</v>
+      </c>
+      <c r="P13">
+        <v>152</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13">
+        <v>150</v>
+      </c>
+      <c r="S13">
+        <v>253</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13">
+        <v>150</v>
+      </c>
+      <c r="W13">
+        <v>152</v>
+      </c>
+      <c r="X13">
+        <v>150</v>
+      </c>
+      <c r="Y13">
+        <v>150</v>
+      </c>
+      <c r="Z13">
+        <v>253</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13">
+        <v>150</v>
+      </c>
+      <c r="AD13">
+        <v>152</v>
+      </c>
+      <c r="AE13">
+        <v>150</v>
+      </c>
+      <c r="AF13">
+        <v>150</v>
+      </c>
+      <c r="AG13">
+        <v>253</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>3032</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>3029</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>152</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>253</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>150</v>
+      </c>
+      <c r="P14">
+        <v>152</v>
+      </c>
+      <c r="Q14">
+        <v>150</v>
+      </c>
+      <c r="R14">
+        <v>150</v>
+      </c>
+      <c r="S14">
+        <v>253</v>
+      </c>
+      <c r="T14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14">
+        <v>150</v>
+      </c>
+      <c r="W14">
+        <v>152</v>
+      </c>
+      <c r="X14">
+        <v>150</v>
+      </c>
+      <c r="Y14">
+        <v>150</v>
+      </c>
+      <c r="Z14">
+        <v>253</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14">
+        <v>150</v>
+      </c>
+      <c r="AD14">
+        <v>152</v>
+      </c>
+      <c r="AE14">
+        <v>150</v>
+      </c>
+      <c r="AF14">
+        <v>150</v>
+      </c>
+      <c r="AG14">
+        <v>253</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2684</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>150</v>
+      </c>
+      <c r="I15">
+        <v>152</v>
+      </c>
+      <c r="J15">
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15">
+        <v>253</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <v>152</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+      <c r="R15">
+        <v>150</v>
+      </c>
+      <c r="S15">
+        <v>253</v>
+      </c>
+      <c r="T15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15">
+        <v>150</v>
+      </c>
+      <c r="W15">
+        <v>152</v>
+      </c>
+      <c r="X15">
+        <v>150</v>
+      </c>
+      <c r="Y15">
+        <v>150</v>
+      </c>
+      <c r="Z15">
+        <v>253</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15">
+        <v>150</v>
+      </c>
+      <c r="AD15">
+        <v>152</v>
+      </c>
+      <c r="AE15">
+        <v>150</v>
+      </c>
+      <c r="AF15">
+        <v>150</v>
+      </c>
+      <c r="AG15">
+        <v>253</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>2670</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>152</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="K16">
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <v>253</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <v>150</v>
+      </c>
+      <c r="P16">
+        <v>152</v>
+      </c>
+      <c r="Q16">
+        <v>150</v>
+      </c>
+      <c r="R16">
+        <v>150</v>
+      </c>
+      <c r="S16">
+        <v>253</v>
+      </c>
+      <c r="T16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16">
+        <v>150</v>
+      </c>
+      <c r="W16">
+        <v>152</v>
+      </c>
+      <c r="X16">
+        <v>150</v>
+      </c>
+      <c r="Y16">
+        <v>150</v>
+      </c>
+      <c r="Z16">
+        <v>253</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16">
+        <v>150</v>
+      </c>
+      <c r="AD16">
+        <v>152</v>
+      </c>
+      <c r="AE16">
+        <v>150</v>
+      </c>
+      <c r="AF16">
+        <v>150</v>
+      </c>
+      <c r="AG16">
+        <v>253</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>2661</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>152</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>253</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17">
+        <v>150</v>
+      </c>
+      <c r="P17">
+        <v>152</v>
+      </c>
+      <c r="Q17">
+        <v>150</v>
+      </c>
+      <c r="R17">
+        <v>150</v>
+      </c>
+      <c r="S17">
+        <v>253</v>
+      </c>
+      <c r="T17" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17">
+        <v>150</v>
+      </c>
+      <c r="W17">
+        <v>152</v>
+      </c>
+      <c r="X17">
+        <v>150</v>
+      </c>
+      <c r="Y17">
+        <v>150</v>
+      </c>
+      <c r="Z17">
+        <v>253</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17">
+        <v>150</v>
+      </c>
+      <c r="AD17">
+        <v>152</v>
+      </c>
+      <c r="AE17">
+        <v>150</v>
+      </c>
+      <c r="AF17">
+        <v>150</v>
+      </c>
+      <c r="AG17">
+        <v>253</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>3028</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>150</v>
+      </c>
+      <c r="I18">
+        <v>152</v>
+      </c>
+      <c r="J18">
+        <v>150</v>
+      </c>
+      <c r="K18">
+        <v>150</v>
+      </c>
+      <c r="L18">
+        <v>253</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18">
+        <v>152</v>
+      </c>
+      <c r="Q18">
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <v>150</v>
+      </c>
+      <c r="S18">
+        <v>253</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18">
+        <v>150</v>
+      </c>
+      <c r="W18">
+        <v>152</v>
+      </c>
+      <c r="X18">
+        <v>150</v>
+      </c>
+      <c r="Y18">
+        <v>150</v>
+      </c>
+      <c r="Z18">
+        <v>253</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18">
+        <v>150</v>
+      </c>
+      <c r="AD18">
+        <v>152</v>
+      </c>
+      <c r="AE18">
+        <v>150</v>
+      </c>
+      <c r="AF18">
+        <v>150</v>
+      </c>
+      <c r="AG18">
+        <v>253</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2679</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>150</v>
+      </c>
+      <c r="I19">
+        <v>152</v>
+      </c>
+      <c r="J19">
+        <v>150</v>
+      </c>
+      <c r="K19">
+        <v>150</v>
+      </c>
+      <c r="L19">
+        <v>253</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19">
+        <v>150</v>
+      </c>
+      <c r="P19">
+        <v>152</v>
+      </c>
+      <c r="Q19">
+        <v>150</v>
+      </c>
+      <c r="R19">
+        <v>150</v>
+      </c>
+      <c r="S19">
+        <v>253</v>
+      </c>
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19">
+        <v>150</v>
+      </c>
+      <c r="W19">
+        <v>152</v>
+      </c>
+      <c r="X19">
+        <v>150</v>
+      </c>
+      <c r="Y19">
+        <v>150</v>
+      </c>
+      <c r="Z19">
+        <v>253</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19">
+        <v>150</v>
+      </c>
+      <c r="AD19">
+        <v>152</v>
+      </c>
+      <c r="AE19">
+        <v>150</v>
+      </c>
+      <c r="AF19">
+        <v>150</v>
+      </c>
+      <c r="AG19">
+        <v>253</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2678</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20">
+        <v>92</v>
+      </c>
+      <c r="J20">
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>253</v>
+      </c>
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20">
+        <v>90</v>
+      </c>
+      <c r="P20">
+        <v>92</v>
+      </c>
+      <c r="Q20">
+        <v>90</v>
+      </c>
+      <c r="R20">
+        <v>90</v>
+      </c>
+      <c r="S20">
+        <v>253</v>
+      </c>
+      <c r="T20" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20">
+        <v>90</v>
+      </c>
+      <c r="W20">
+        <v>92</v>
+      </c>
+      <c r="X20">
+        <v>90</v>
+      </c>
+      <c r="Y20">
+        <v>90</v>
+      </c>
+      <c r="Z20">
+        <v>253</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC20">
+        <v>90</v>
+      </c>
+      <c r="AD20">
+        <v>92</v>
+      </c>
+      <c r="AE20">
+        <v>90</v>
+      </c>
+      <c r="AF20">
+        <v>90</v>
+      </c>
+      <c r="AG20">
+        <v>253</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2690</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>170</v>
+      </c>
+      <c r="I21">
+        <v>172</v>
+      </c>
+      <c r="J21">
+        <v>170</v>
+      </c>
+      <c r="K21">
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>253</v>
+      </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21">
+        <v>170</v>
+      </c>
+      <c r="P21">
+        <v>172</v>
+      </c>
+      <c r="Q21">
+        <v>170</v>
+      </c>
+      <c r="R21">
+        <v>170</v>
+      </c>
+      <c r="S21">
+        <v>253</v>
+      </c>
+      <c r="T21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21">
+        <v>170</v>
+      </c>
+      <c r="W21">
+        <v>172</v>
+      </c>
+      <c r="X21">
+        <v>170</v>
+      </c>
+      <c r="Y21">
+        <v>170</v>
+      </c>
+      <c r="Z21">
+        <v>253</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC21">
+        <v>170</v>
+      </c>
+      <c r="AD21">
+        <v>172</v>
+      </c>
+      <c r="AE21">
+        <v>170</v>
+      </c>
+      <c r="AF21">
+        <v>170</v>
+      </c>
+      <c r="AG21">
+        <v>253</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>2691</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>140</v>
+      </c>
+      <c r="I22">
+        <v>142</v>
+      </c>
+      <c r="J22">
+        <v>140</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
+      </c>
+      <c r="L22">
+        <v>253</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22">
+        <v>140</v>
+      </c>
+      <c r="P22">
+        <v>142</v>
+      </c>
+      <c r="Q22">
+        <v>140</v>
+      </c>
+      <c r="R22">
+        <v>140</v>
+      </c>
+      <c r="S22">
+        <v>253</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22">
+        <v>140</v>
+      </c>
+      <c r="W22">
+        <v>142</v>
+      </c>
+      <c r="X22">
+        <v>140</v>
+      </c>
+      <c r="Y22">
+        <v>140</v>
+      </c>
+      <c r="Z22">
+        <v>253</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC22">
+        <v>140</v>
+      </c>
+      <c r="AD22">
+        <v>142</v>
+      </c>
+      <c r="AE22">
+        <v>140</v>
+      </c>
+      <c r="AF22">
+        <v>140</v>
+      </c>
+      <c r="AG22">
+        <v>253</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>2672</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>150</v>
+      </c>
+      <c r="I23">
+        <v>152</v>
+      </c>
+      <c r="J23">
+        <v>150</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23">
+        <v>253</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23">
+        <v>150</v>
+      </c>
+      <c r="P23">
+        <v>152</v>
+      </c>
+      <c r="Q23">
+        <v>150</v>
+      </c>
+      <c r="R23">
+        <v>150</v>
+      </c>
+      <c r="S23">
+        <v>253</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23">
+        <v>150</v>
+      </c>
+      <c r="W23">
+        <v>152</v>
+      </c>
+      <c r="X23">
+        <v>150</v>
+      </c>
+      <c r="Y23">
+        <v>150</v>
+      </c>
+      <c r="Z23">
+        <v>253</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23">
+        <v>150</v>
+      </c>
+      <c r="AD23">
+        <v>152</v>
+      </c>
+      <c r="AE23">
+        <v>150</v>
+      </c>
+      <c r="AF23">
+        <v>150</v>
+      </c>
+      <c r="AG23">
+        <v>253</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2682</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>150</v>
+      </c>
+      <c r="I24">
+        <v>152</v>
+      </c>
+      <c r="J24">
+        <v>150</v>
+      </c>
+      <c r="K24">
+        <v>150</v>
+      </c>
+      <c r="L24">
+        <v>253</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24">
+        <v>150</v>
+      </c>
+      <c r="P24">
+        <v>152</v>
+      </c>
+      <c r="Q24">
+        <v>150</v>
+      </c>
+      <c r="R24">
+        <v>150</v>
+      </c>
+      <c r="S24">
+        <v>253</v>
+      </c>
+      <c r="T24" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24">
+        <v>150</v>
+      </c>
+      <c r="W24">
+        <v>152</v>
+      </c>
+      <c r="X24">
+        <v>150</v>
+      </c>
+      <c r="Y24">
+        <v>150</v>
+      </c>
+      <c r="Z24">
+        <v>253</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24">
+        <v>150</v>
+      </c>
+      <c r="AD24">
+        <v>152</v>
+      </c>
+      <c r="AE24">
+        <v>150</v>
+      </c>
+      <c r="AF24">
+        <v>150</v>
+      </c>
+      <c r="AG24">
+        <v>253</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>3034</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <v>152</v>
+      </c>
+      <c r="J25">
+        <v>150</v>
+      </c>
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25">
+        <v>253</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25">
+        <v>150</v>
+      </c>
+      <c r="P25">
+        <v>152</v>
+      </c>
+      <c r="Q25">
+        <v>150</v>
+      </c>
+      <c r="R25">
+        <v>150</v>
+      </c>
+      <c r="S25">
+        <v>253</v>
+      </c>
+      <c r="T25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25">
+        <v>150</v>
+      </c>
+      <c r="W25">
+        <v>152</v>
+      </c>
+      <c r="X25">
+        <v>150</v>
+      </c>
+      <c r="Y25">
+        <v>150</v>
+      </c>
+      <c r="Z25">
+        <v>253</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC25">
+        <v>150</v>
+      </c>
+      <c r="AD25">
+        <v>152</v>
+      </c>
+      <c r="AE25">
+        <v>150</v>
+      </c>
+      <c r="AF25">
+        <v>150</v>
+      </c>
+      <c r="AG25">
+        <v>253</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>2668</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>152</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
+      </c>
+      <c r="K26">
+        <v>150</v>
+      </c>
+      <c r="L26">
+        <v>253</v>
+      </c>
+      <c r="M26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26">
+        <v>150</v>
+      </c>
+      <c r="P26">
+        <v>152</v>
+      </c>
+      <c r="Q26">
+        <v>150</v>
+      </c>
+      <c r="R26">
+        <v>150</v>
+      </c>
+      <c r="S26">
+        <v>253</v>
+      </c>
+      <c r="T26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26">
+        <v>150</v>
+      </c>
+      <c r="W26">
+        <v>152</v>
+      </c>
+      <c r="X26">
+        <v>150</v>
+      </c>
+      <c r="Y26">
+        <v>150</v>
+      </c>
+      <c r="Z26">
+        <v>253</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26">
+        <v>150</v>
+      </c>
+      <c r="AD26">
+        <v>152</v>
+      </c>
+      <c r="AE26">
+        <v>150</v>
+      </c>
+      <c r="AF26">
+        <v>150</v>
+      </c>
+      <c r="AG26">
+        <v>253</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2669</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>150</v>
+      </c>
+      <c r="I27">
+        <v>152</v>
+      </c>
+      <c r="J27">
+        <v>150</v>
+      </c>
+      <c r="K27">
+        <v>150</v>
+      </c>
+      <c r="L27">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27">
+        <v>150</v>
+      </c>
+      <c r="P27">
+        <v>152</v>
+      </c>
+      <c r="Q27">
+        <v>150</v>
+      </c>
+      <c r="R27">
+        <v>150</v>
+      </c>
+      <c r="S27">
+        <v>253</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27">
+        <v>150</v>
+      </c>
+      <c r="W27">
+        <v>152</v>
+      </c>
+      <c r="X27">
+        <v>150</v>
+      </c>
+      <c r="Y27">
+        <v>150</v>
+      </c>
+      <c r="Z27">
+        <v>253</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27">
+        <v>150</v>
+      </c>
+      <c r="AD27">
+        <v>152</v>
+      </c>
+      <c r="AE27">
+        <v>150</v>
+      </c>
+      <c r="AF27">
+        <v>150</v>
+      </c>
+      <c r="AG27">
+        <v>253</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>3035</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>150</v>
+      </c>
+      <c r="I28">
+        <v>152</v>
+      </c>
+      <c r="J28">
+        <v>150</v>
+      </c>
+      <c r="K28">
+        <v>150</v>
+      </c>
+      <c r="L28">
+        <v>253</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28">
+        <v>150</v>
+      </c>
+      <c r="P28">
+        <v>152</v>
+      </c>
+      <c r="Q28">
+        <v>150</v>
+      </c>
+      <c r="R28">
+        <v>150</v>
+      </c>
+      <c r="S28">
+        <v>253</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28">
+        <v>150</v>
+      </c>
+      <c r="W28">
+        <v>152</v>
+      </c>
+      <c r="X28">
+        <v>150</v>
+      </c>
+      <c r="Y28">
+        <v>150</v>
+      </c>
+      <c r="Z28">
+        <v>253</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC28">
+        <v>150</v>
+      </c>
+      <c r="AD28">
+        <v>152</v>
+      </c>
+      <c r="AE28">
+        <v>150</v>
+      </c>
+      <c r="AF28">
+        <v>150</v>
+      </c>
+      <c r="AG28">
+        <v>253</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2677</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>152</v>
+      </c>
+      <c r="J29">
+        <v>150</v>
+      </c>
+      <c r="K29">
+        <v>150</v>
+      </c>
+      <c r="L29">
+        <v>253</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29">
+        <v>150</v>
+      </c>
+      <c r="P29">
+        <v>152</v>
+      </c>
+      <c r="Q29">
+        <v>150</v>
+      </c>
+      <c r="R29">
+        <v>150</v>
+      </c>
+      <c r="S29">
+        <v>253</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29">
+        <v>150</v>
+      </c>
+      <c r="W29">
+        <v>152</v>
+      </c>
+      <c r="X29">
+        <v>150</v>
+      </c>
+      <c r="Y29">
+        <v>150</v>
+      </c>
+      <c r="Z29">
+        <v>253</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29">
+        <v>150</v>
+      </c>
+      <c r="AD29">
+        <v>152</v>
+      </c>
+      <c r="AE29">
+        <v>150</v>
+      </c>
+      <c r="AF29">
+        <v>150</v>
+      </c>
+      <c r="AG29">
+        <v>253</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>2680</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>150</v>
+      </c>
+      <c r="I30">
+        <v>152</v>
+      </c>
+      <c r="J30">
+        <v>150</v>
+      </c>
+      <c r="K30">
+        <v>150</v>
+      </c>
+      <c r="L30">
+        <v>253</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30">
+        <v>150</v>
+      </c>
+      <c r="P30">
+        <v>152</v>
+      </c>
+      <c r="Q30">
+        <v>150</v>
+      </c>
+      <c r="R30">
+        <v>150</v>
+      </c>
+      <c r="S30">
+        <v>253</v>
+      </c>
+      <c r="T30" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30">
+        <v>150</v>
+      </c>
+      <c r="W30">
+        <v>152</v>
+      </c>
+      <c r="X30">
+        <v>150</v>
+      </c>
+      <c r="Y30">
+        <v>150</v>
+      </c>
+      <c r="Z30">
+        <v>253</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC30">
+        <v>150</v>
+      </c>
+      <c r="AD30">
+        <v>152</v>
+      </c>
+      <c r="AE30">
+        <v>150</v>
+      </c>
+      <c r="AF30">
+        <v>150</v>
+      </c>
+      <c r="AG30">
+        <v>253</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>3356</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
         <v>7</v>
       </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>253</v>
+      </c>
+      <c r="M31" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>253</v>
+      </c>
+      <c r="T31" t="s">
+        <v>81</v>
+      </c>
+      <c r="U31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+      <c r="Z31">
+        <v>253</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>7</v>
+      </c>
+      <c r="AE31">
+        <v>7</v>
+      </c>
+      <c r="AF31">
+        <v>7</v>
+      </c>
+      <c r="AG31">
+        <v>253</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2674</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>253</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>12</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <v>253</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>12</v>
+      </c>
+      <c r="AE32">
+        <v>10</v>
+      </c>
+      <c r="AF32">
+        <v>10</v>
+      </c>
+      <c r="AG32">
+        <v>253</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2662</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>150</v>
+      </c>
+      <c r="I33">
+        <v>152</v>
+      </c>
+      <c r="J33">
+        <v>150</v>
+      </c>
+      <c r="K33">
+        <v>150</v>
+      </c>
+      <c r="L33">
+        <v>253</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33">
+        <v>150</v>
+      </c>
+      <c r="P33">
+        <v>152</v>
+      </c>
+      <c r="Q33">
+        <v>150</v>
+      </c>
+      <c r="R33">
+        <v>150</v>
+      </c>
+      <c r="S33">
+        <v>253</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33">
+        <v>150</v>
+      </c>
+      <c r="W33">
+        <v>152</v>
+      </c>
+      <c r="X33">
+        <v>150</v>
+      </c>
+      <c r="Y33">
+        <v>150</v>
+      </c>
+      <c r="Z33">
+        <v>253</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC33">
+        <v>150</v>
+      </c>
+      <c r="AD33">
+        <v>152</v>
+      </c>
+      <c r="AE33">
+        <v>150</v>
+      </c>
+      <c r="AF33">
+        <v>150</v>
+      </c>
+      <c r="AG33">
+        <v>253</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2692</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>252</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>253</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>252</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>253</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34">
+        <v>7</v>
+      </c>
+      <c r="W34">
+        <v>252</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>7</v>
+      </c>
+      <c r="Z34">
+        <v>253</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC34">
+        <v>7</v>
+      </c>
+      <c r="AD34">
+        <v>252</v>
+      </c>
+      <c r="AE34">
+        <v>7</v>
+      </c>
+      <c r="AF34">
+        <v>7</v>
+      </c>
+      <c r="AG34">
+        <v>253</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2681</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>150</v>
+      </c>
+      <c r="I35">
+        <v>152</v>
+      </c>
+      <c r="J35">
+        <v>150</v>
+      </c>
+      <c r="K35">
+        <v>150</v>
+      </c>
+      <c r="L35">
+        <v>253</v>
+      </c>
+      <c r="M35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35">
+        <v>150</v>
+      </c>
+      <c r="P35">
+        <v>152</v>
+      </c>
+      <c r="Q35">
+        <v>150</v>
+      </c>
+      <c r="R35">
+        <v>150</v>
+      </c>
+      <c r="S35">
+        <v>253</v>
+      </c>
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35">
+        <v>150</v>
+      </c>
+      <c r="W35">
+        <v>152</v>
+      </c>
+      <c r="X35">
+        <v>150</v>
+      </c>
+      <c r="Y35">
+        <v>150</v>
+      </c>
+      <c r="Z35">
+        <v>253</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35">
+        <v>150</v>
+      </c>
+      <c r="AD35">
+        <v>152</v>
+      </c>
+      <c r="AE35">
+        <v>150</v>
+      </c>
+      <c r="AF35">
+        <v>150</v>
+      </c>
+      <c r="AG35">
+        <v>253</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2676</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+      <c r="I36">
+        <v>152</v>
+      </c>
+      <c r="J36">
+        <v>150</v>
+      </c>
+      <c r="K36">
+        <v>150</v>
+      </c>
+      <c r="L36">
+        <v>253</v>
+      </c>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36">
+        <v>150</v>
+      </c>
+      <c r="P36">
+        <v>152</v>
+      </c>
+      <c r="Q36">
+        <v>150</v>
+      </c>
+      <c r="R36">
+        <v>150</v>
+      </c>
+      <c r="S36">
+        <v>253</v>
+      </c>
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36">
+        <v>150</v>
+      </c>
+      <c r="W36">
+        <v>152</v>
+      </c>
+      <c r="X36">
+        <v>150</v>
+      </c>
+      <c r="Y36">
+        <v>150</v>
+      </c>
+      <c r="Z36">
+        <v>253</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC36">
+        <v>150</v>
+      </c>
+      <c r="AD36">
+        <v>152</v>
+      </c>
+      <c r="AE36">
+        <v>150</v>
+      </c>
+      <c r="AF36">
+        <v>150</v>
+      </c>
+      <c r="AG36">
+        <v>253</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>2675</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>150</v>
+      </c>
+      <c r="I37">
+        <v>152</v>
+      </c>
+      <c r="J37">
+        <v>150</v>
+      </c>
+      <c r="K37">
+        <v>150</v>
+      </c>
+      <c r="L37">
+        <v>253</v>
+      </c>
+      <c r="M37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37">
+        <v>150</v>
+      </c>
+      <c r="P37">
+        <v>152</v>
+      </c>
+      <c r="Q37">
+        <v>150</v>
+      </c>
+      <c r="R37">
+        <v>150</v>
+      </c>
+      <c r="S37">
+        <v>253</v>
+      </c>
+      <c r="T37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37">
+        <v>150</v>
+      </c>
+      <c r="W37">
+        <v>152</v>
+      </c>
+      <c r="X37">
+        <v>150</v>
+      </c>
+      <c r="Y37">
+        <v>150</v>
+      </c>
+      <c r="Z37">
+        <v>253</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC37">
+        <v>150</v>
+      </c>
+      <c r="AD37">
+        <v>152</v>
+      </c>
+      <c r="AE37">
+        <v>150</v>
+      </c>
+      <c r="AF37">
+        <v>150</v>
+      </c>
+      <c r="AG37">
+        <v>253</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3029</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>150</v>
+      </c>
+      <c r="I38">
+        <v>152</v>
+      </c>
+      <c r="J38">
+        <v>150</v>
+      </c>
+      <c r="K38">
+        <v>150</v>
+      </c>
+      <c r="L38">
+        <v>253</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38">
+        <v>150</v>
+      </c>
+      <c r="P38">
+        <v>152</v>
+      </c>
+      <c r="Q38">
+        <v>150</v>
+      </c>
+      <c r="R38">
+        <v>150</v>
+      </c>
+      <c r="S38">
+        <v>253</v>
+      </c>
+      <c r="T38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V38">
+        <v>150</v>
+      </c>
+      <c r="W38">
+        <v>152</v>
+      </c>
+      <c r="X38">
+        <v>150</v>
+      </c>
+      <c r="Y38">
+        <v>150</v>
+      </c>
+      <c r="Z38">
+        <v>253</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC38">
+        <v>150</v>
+      </c>
+      <c r="AD38">
+        <v>152</v>
+      </c>
+      <c r="AE38">
+        <v>150</v>
+      </c>
+      <c r="AF38">
+        <v>150</v>
+      </c>
+      <c r="AG38">
+        <v>253</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>2660</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
         <v>38</v>
       </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>150</v>
+      </c>
+      <c r="I39">
+        <v>152</v>
+      </c>
+      <c r="J39">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>150</v>
+      </c>
+      <c r="L39">
+        <v>253</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39">
+        <v>150</v>
+      </c>
+      <c r="P39">
+        <v>152</v>
+      </c>
+      <c r="Q39">
+        <v>150</v>
+      </c>
+      <c r="R39">
+        <v>150</v>
+      </c>
+      <c r="S39">
+        <v>253</v>
+      </c>
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39">
+        <v>150</v>
+      </c>
+      <c r="W39">
+        <v>152</v>
+      </c>
+      <c r="X39">
+        <v>150</v>
+      </c>
+      <c r="Y39">
+        <v>150</v>
+      </c>
+      <c r="Z39">
+        <v>253</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC39">
+        <v>150</v>
+      </c>
+      <c r="AD39">
+        <v>152</v>
+      </c>
+      <c r="AE39">
+        <v>150</v>
+      </c>
+      <c r="AF39">
+        <v>150</v>
+      </c>
+      <c r="AG39">
+        <v>253</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>2667</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>2663</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
         <v>39</v>
       </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>150</v>
+      </c>
+      <c r="I40">
+        <v>152</v>
+      </c>
+      <c r="J40">
+        <v>150</v>
+      </c>
+      <c r="K40">
+        <v>150</v>
+      </c>
+      <c r="L40" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40">
+        <v>150</v>
+      </c>
+      <c r="P40">
+        <v>152</v>
+      </c>
+      <c r="Q40">
+        <v>150</v>
+      </c>
+      <c r="R40">
+        <v>150</v>
+      </c>
+      <c r="S40" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40">
+        <v>150</v>
+      </c>
+      <c r="W40">
+        <v>152</v>
+      </c>
+      <c r="X40">
+        <v>150</v>
+      </c>
+      <c r="Y40">
+        <v>150</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC40">
+        <v>150</v>
+      </c>
+      <c r="AD40">
+        <v>152</v>
+      </c>
+      <c r="AE40">
+        <v>150</v>
+      </c>
+      <c r="AF40">
+        <v>150</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>2666</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>2663</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
         <v>40</v>
       </c>
+      <c r="H41">
+        <v>150</v>
+      </c>
+      <c r="I41">
+        <v>152</v>
+      </c>
+      <c r="J41">
+        <v>150</v>
+      </c>
+      <c r="K41">
+        <v>150</v>
+      </c>
+      <c r="L41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41">
+        <v>150</v>
+      </c>
+      <c r="P41">
+        <v>152</v>
+      </c>
+      <c r="Q41">
+        <v>150</v>
+      </c>
+      <c r="R41">
+        <v>150</v>
+      </c>
+      <c r="S41" t="s">
+        <v>96</v>
+      </c>
+      <c r="T41" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41">
+        <v>150</v>
+      </c>
+      <c r="W41">
+        <v>152</v>
+      </c>
+      <c r="X41">
+        <v>150</v>
+      </c>
+      <c r="Y41">
+        <v>150</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41">
+        <v>150</v>
+      </c>
+      <c r="AD41">
+        <v>152</v>
+      </c>
+      <c r="AE41">
+        <v>150</v>
+      </c>
+      <c r="AF41">
+        <v>150</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>2664</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>2663</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>150</v>
+      </c>
+      <c r="I42">
+        <v>152</v>
+      </c>
+      <c r="J42">
+        <v>150</v>
+      </c>
+      <c r="K42">
+        <v>150</v>
+      </c>
+      <c r="L42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42">
+        <v>150</v>
+      </c>
+      <c r="P42">
+        <v>152</v>
+      </c>
+      <c r="Q42">
+        <v>150</v>
+      </c>
+      <c r="R42">
+        <v>150</v>
+      </c>
+      <c r="S42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42">
+        <v>150</v>
+      </c>
+      <c r="W42">
+        <v>152</v>
+      </c>
+      <c r="X42">
+        <v>150</v>
+      </c>
+      <c r="Y42">
+        <v>150</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC42">
+        <v>150</v>
+      </c>
+      <c r="AD42">
+        <v>152</v>
+      </c>
+      <c r="AE42">
+        <v>150</v>
+      </c>
+      <c r="AF42">
+        <v>150</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>2665</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43">
+        <v>2663</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>150</v>
+      </c>
+      <c r="I43">
+        <v>152</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43">
+        <v>150</v>
+      </c>
+      <c r="L43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43">
+        <v>150</v>
+      </c>
+      <c r="P43">
+        <v>152</v>
+      </c>
+      <c r="Q43">
+        <v>150</v>
+      </c>
+      <c r="R43">
+        <v>150</v>
+      </c>
+      <c r="S43" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s">
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <v>150</v>
+      </c>
+      <c r="W43">
+        <v>152</v>
+      </c>
+      <c r="X43">
+        <v>150</v>
+      </c>
+      <c r="Y43">
+        <v>150</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC43">
+        <v>150</v>
+      </c>
+      <c r="AD43">
+        <v>152</v>
+      </c>
+      <c r="AE43">
+        <v>150</v>
+      </c>
+      <c r="AF43">
+        <v>150</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>2683</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>150</v>
+      </c>
+      <c r="I44">
+        <v>152</v>
+      </c>
+      <c r="J44">
+        <v>150</v>
+      </c>
+      <c r="K44">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>150</v>
+      </c>
+      <c r="P44">
+        <v>152</v>
+      </c>
+      <c r="Q44">
+        <v>150</v>
+      </c>
+      <c r="R44">
+        <v>150</v>
+      </c>
+      <c r="S44" t="s">
+        <v>102</v>
+      </c>
+      <c r="T44" t="s">
+        <v>103</v>
+      </c>
+      <c r="U44" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44">
+        <v>150</v>
+      </c>
+      <c r="W44">
+        <v>152</v>
+      </c>
+      <c r="X44">
+        <v>150</v>
+      </c>
+      <c r="Y44">
+        <v>150</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC44">
+        <v>150</v>
+      </c>
+      <c r="AD44">
+        <v>152</v>
+      </c>
+      <c r="AE44">
+        <v>150</v>
+      </c>
+      <c r="AF44">
+        <v>150</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>2689</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <v>92</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45" t="s">
+        <v>106</v>
+      </c>
+      <c r="M45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45">
+        <v>90</v>
+      </c>
+      <c r="P45">
+        <v>92</v>
+      </c>
+      <c r="Q45">
+        <v>90</v>
+      </c>
+      <c r="R45">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>106</v>
+      </c>
+      <c r="T45" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45">
+        <v>90</v>
+      </c>
+      <c r="W45">
+        <v>92</v>
+      </c>
+      <c r="X45">
+        <v>90</v>
+      </c>
+      <c r="Y45">
+        <v>90</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC45">
+        <v>90</v>
+      </c>
+      <c r="AD45">
+        <v>92</v>
+      </c>
+      <c r="AE45">
+        <v>90</v>
+      </c>
+      <c r="AF45">
+        <v>90</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH45" t="s">
         <v>43</v>
       </c>
+      <c r="AI45" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>2663</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>150</v>
+      </c>
+      <c r="I46">
+        <v>152</v>
+      </c>
+      <c r="J46">
+        <v>150</v>
+      </c>
+      <c r="K46">
+        <v>150</v>
+      </c>
+      <c r="L46" t="s">
+        <v>108</v>
+      </c>
+      <c r="M46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46">
+        <v>150</v>
+      </c>
+      <c r="P46">
+        <v>152</v>
+      </c>
+      <c r="Q46">
+        <v>150</v>
+      </c>
+      <c r="R46">
+        <v>150</v>
+      </c>
+      <c r="S46" t="s">
+        <v>108</v>
+      </c>
+      <c r="T46" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V46">
+        <v>150</v>
+      </c>
+      <c r="W46">
+        <v>152</v>
+      </c>
+      <c r="X46">
+        <v>150</v>
+      </c>
+      <c r="Y46">
+        <v>150</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC46">
+        <v>150</v>
+      </c>
+      <c r="AD46">
+        <v>152</v>
+      </c>
+      <c r="AE46">
+        <v>150</v>
+      </c>
+      <c r="AF46">
+        <v>150</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>45</v>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>2673</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>150</v>
+      </c>
+      <c r="I47">
+        <v>152</v>
+      </c>
+      <c r="J47">
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <v>150</v>
+      </c>
+      <c r="L47" t="s">
+        <v>110</v>
+      </c>
+      <c r="M47" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47">
+        <v>150</v>
+      </c>
+      <c r="P47">
+        <v>152</v>
+      </c>
+      <c r="Q47">
+        <v>150</v>
+      </c>
+      <c r="R47">
+        <v>150</v>
+      </c>
+      <c r="S47" t="s">
+        <v>110</v>
+      </c>
+      <c r="T47" t="s">
+        <v>111</v>
+      </c>
+      <c r="U47" t="s">
+        <v>42</v>
+      </c>
+      <c r="V47">
+        <v>150</v>
+      </c>
+      <c r="W47">
+        <v>152</v>
+      </c>
+      <c r="X47">
+        <v>150</v>
+      </c>
+      <c r="Y47">
+        <v>150</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC47">
+        <v>150</v>
+      </c>
+      <c r="AD47">
+        <v>152</v>
+      </c>
+      <c r="AE47">
+        <v>150</v>
+      </c>
+      <c r="AF47">
+        <v>150</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>46</v>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>2688</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>150</v>
+      </c>
+      <c r="I48">
+        <v>152</v>
+      </c>
+      <c r="J48">
+        <v>150</v>
+      </c>
+      <c r="K48">
+        <v>150</v>
+      </c>
+      <c r="L48" t="s">
+        <v>114</v>
+      </c>
+      <c r="M48" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48">
+        <v>150</v>
+      </c>
+      <c r="P48">
+        <v>152</v>
+      </c>
+      <c r="Q48">
+        <v>150</v>
+      </c>
+      <c r="R48">
+        <v>150</v>
+      </c>
+      <c r="S48" t="s">
+        <v>114</v>
+      </c>
+      <c r="T48" t="s">
+        <v>115</v>
+      </c>
+      <c r="U48" t="s">
+        <v>42</v>
+      </c>
+      <c r="V48">
+        <v>150</v>
+      </c>
+      <c r="W48">
+        <v>152</v>
+      </c>
+      <c r="X48">
+        <v>150</v>
+      </c>
+      <c r="Y48">
+        <v>150</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC48">
+        <v>150</v>
+      </c>
+      <c r="AD48">
+        <v>152</v>
+      </c>
+      <c r="AE48">
+        <v>150</v>
+      </c>
+      <c r="AF48">
+        <v>150</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>2671</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>253</v>
+      </c>
+      <c r="T49" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
